--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/Tổng hợp lương nhân viên tại LONG XUYÊN 7-2024.xlsx.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/Tổng hợp lương nhân viên tại LONG XUYÊN 7-2024.xlsx.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3590357.142857143</v>
+        <v>2090357.142857143</v>
       </c>
     </row>
     <row r="5">
@@ -521,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>16148928.57142857</v>
+        <v>14648928.57142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/Tổng hợp lương nhân viên tại LONG XUYÊN 7-2024.xlsx.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/Tổng hợp lương nhân viên tại LONG XUYÊN 7-2024.xlsx.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2765357.142857142</v>
+        <v>-1413928.571428571</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4448571.428571429</v>
+        <v>5160000</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2090357.142857143</v>
+        <v>2658928.571428571</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7263928.571428572</v>
+        <v>8118214.285714286</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3611428.571428571</v>
+        <v>4180000</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>14648928.57142857</v>
+        <v>18703214.28571429</v>
       </c>
     </row>
   </sheetData>
